--- a/src/test/resources/testdata/batch19Excel.xlsx
+++ b/src/test/resources/testdata/batch19Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/r5621208_rmb_co_za/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{DF4864CF-9219-47B2-B791-BA9D031B6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37636B82-DE48-4CE2-9D1A-4E165A200D6E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{DF4864CF-9219-47B2-B791-BA9D031B6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3845D21D-634D-470E-8E68-F99205AA207F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A3E9472-3A82-418D-9490-29D68E91F32C}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>NoziSkhy</t>
   </si>
   <si>
-    <t>C:\Users\R5621208\OneDrive - FRG\Desktop.png</t>
-  </si>
-  <si>
     <t>Nonku</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Samke@123n</t>
+  </si>
+  <si>
+    <t>C:\Users\R5621208\Downloads\Screenshot.png</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,108 +554,108 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
